--- a/artfynd/A 1148-2021.xlsx
+++ b/artfynd/A 1148-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80977</v>
+        <v>83892727</v>
       </c>
       <c r="B2" t="n">
-        <v>77540</v>
+        <v>56411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>185</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Starrmyran, Ång</t>
+          <t>Stenmyrberget, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>715363.1336768167</v>
+        <v>715185.8176905914</v>
       </c>
       <c r="R2" t="n">
-        <v>7085385.053305111</v>
+        <v>7085533.152809725</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +755,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2007-02-13</t>
+          <t>2020-03-26</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +765,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2007-02-13</t>
+          <t>2020-03-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,22 +785,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Jonas F Grahn</t>
+          <t>Emil Larsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Emil Larsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>83892727</v>
+        <v>80977</v>
       </c>
       <c r="B3" t="n">
-        <v>56411</v>
+        <v>77540</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,42 +813,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>185</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Stenmyrberget, Ång</t>
+          <t>Starrmyran, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>715185.8176905914</v>
+        <v>715363.1336768167</v>
       </c>
       <c r="R3" t="n">
-        <v>7085533.152809725</v>
+        <v>7085385.053305111</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2007-02-13</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2007-02-13</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -897,12 +897,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Emil Larsson</t>
+          <t>Jonas F Grahn</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Emil Larsson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>

--- a/artfynd/A 1148-2021.xlsx
+++ b/artfynd/A 1148-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>83892727</v>
+        <v>80977</v>
       </c>
       <c r="B2" t="n">
-        <v>56411</v>
+        <v>77540</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,42 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>185</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Stenmyrberget, Ång</t>
+          <t>Starrmyran, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>715185.8176905914</v>
+        <v>715363.1336768167</v>
       </c>
       <c r="R2" t="n">
-        <v>7085533.152809725</v>
+        <v>7085385.053305111</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -755,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2007-02-13</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -765,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2007-02-13</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -785,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Emil Larsson</t>
+          <t>Jonas F Grahn</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Emil Larsson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80977</v>
+        <v>83892727</v>
       </c>
       <c r="B3" t="n">
-        <v>77540</v>
+        <v>56411</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,37 +808,42 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>185</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Starrmyran, Ång</t>
+          <t>Stenmyrberget, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>715363.1336768167</v>
+        <v>715185.8176905914</v>
       </c>
       <c r="R3" t="n">
-        <v>7085385.053305111</v>
+        <v>7085533.152809725</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2007-02-13</t>
+          <t>2020-03-26</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2007-02-13</t>
+          <t>2020-03-26</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -897,12 +897,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Jonas F Grahn</t>
+          <t>Emil Larsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Emil Larsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
